--- a/download/出库明细表.xlsx
+++ b/download/出库明细表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -67,6 +67,36 @@
     <t>2023-12-13</t>
   </si>
   <si>
+    <t>TC202312-01</t>
+  </si>
+  <si>
+    <t>M003172</t>
+  </si>
+  <si>
+    <t>无缝钢管</t>
+  </si>
+  <si>
+    <t>17-4</t>
+  </si>
+  <si>
+    <t>219*14</t>
+  </si>
+  <si>
+    <t>固溶时效，28-32HRC</t>
+  </si>
+  <si>
+    <t>Ahsfhsfkjfw90</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>北京易瑞盈商贸有限公司</t>
   </si>
   <si>
@@ -76,28 +106,7 @@
     <t>CK202312-02</t>
   </si>
   <si>
-    <t>M003172</t>
-  </si>
-  <si>
-    <t>无缝钢管</t>
-  </si>
-  <si>
-    <t>17-4</t>
-  </si>
-  <si>
-    <t>219*14</t>
-  </si>
-  <si>
-    <t>固溶时效，28-32HRC</t>
-  </si>
-  <si>
-    <t>Ahsfhsfkjfw90</t>
-  </si>
-  <si>
     <t>230</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>28</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,43 +532,84 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/download/出库明细表.xlsx
+++ b/download/出库明细表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>序号</t>
   </si>
@@ -64,13 +64,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>2023-12-13</t>
-  </si>
-  <si>
-    <t>TC202312-01</t>
-  </si>
-  <si>
-    <t>M003172</t>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>北京易瑞盈</t>
+  </si>
+  <si>
+    <t>we3344</t>
+  </si>
+  <si>
+    <t>CK202312-02</t>
+  </si>
+  <si>
+    <t>M004260</t>
+  </si>
+  <si>
+    <t>圆钢</t>
+  </si>
+  <si>
+    <t>4145H</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>调质110KSI</t>
+  </si>
+  <si>
+    <t>3017455Z</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>180.3</t>
+  </si>
+  <si>
+    <t>L659</t>
   </si>
   <si>
     <t>无缝钢管</t>
@@ -79,37 +112,22 @@
     <t>17-4</t>
   </si>
   <si>
-    <t>219*14</t>
-  </si>
-  <si>
-    <t>固溶时效，28-32HRC</t>
-  </si>
-  <si>
-    <t>Ahsfhsfkjfw90</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t>www222</t>
-  </si>
-  <si>
-    <t>CK202312-02</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>150*10</t>
+  </si>
+  <si>
+    <t>固溶时效H1100</t>
+  </si>
+  <si>
+    <t>0D40224</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22.2</t>
   </si>
 </sst>
 </file>
@@ -532,82 +550,86 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2"/>
     </row>
